--- a/out/katiana_excel_plotly_dashboard.xlsx
+++ b/out/katiana_excel_plotly_dashboard.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\KATIANASTOREBGD\out\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E609558-BFF0-4BFC-BB2E-E9BBF37BDAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas_Originais" sheetId="1" r:id="rId1"/>
     <sheet name="Receita_Diaria" sheetId="2" r:id="rId2"/>
     <sheet name="Previsao_30_Dias" sheetId="3" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -49,107 +42,107 @@
     <t>valor_total</t>
   </si>
   <si>
+    <t>Lucro (R$)</t>
+  </si>
+  <si>
     <t>CORTINA</t>
   </si>
   <si>
+    <t>COLCHA</t>
+  </si>
+  <si>
+    <t>TOALHA</t>
+  </si>
+  <si>
+    <t>MANTA</t>
+  </si>
+  <si>
+    <t>TAPETE</t>
+  </si>
+  <si>
+    <t>FRONHA</t>
+  </si>
+  <si>
+    <t>PASSADEIRA</t>
+  </si>
+  <si>
+    <t>JOGO COZINHA</t>
+  </si>
+  <si>
+    <t>TOALHA ROSTO</t>
+  </si>
+  <si>
+    <t>KIT PANO DE PRATO</t>
+  </si>
+  <si>
+    <t>TAPETINHO</t>
+  </si>
+  <si>
+    <t>LENÇOL</t>
+  </si>
+  <si>
+    <t>EDREDOM</t>
+  </si>
+  <si>
+    <t>TOALHA EMBORRACHADA</t>
+  </si>
+  <si>
+    <t>LENÇOL SOLTEIRO</t>
+  </si>
+  <si>
+    <t>PANO PISO</t>
+  </si>
+  <si>
+    <t>LENÇOL CASAL</t>
+  </si>
+  <si>
+    <t>TOALHA RENDA</t>
+  </si>
+  <si>
+    <t>TAPETE PISO</t>
+  </si>
+  <si>
+    <t>JOGO PANELA</t>
+  </si>
+  <si>
+    <t>COBREDON</t>
+  </si>
+  <si>
     <t>QUARTO</t>
   </si>
   <si>
+    <t>BANHO</t>
+  </si>
+  <si>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>ROUPAS</t>
+  </si>
+  <si>
+    <t>COZINHA</t>
+  </si>
+  <si>
     <t>VIRTUAL</t>
   </si>
   <si>
-    <t>COLCHA</t>
-  </si>
-  <si>
-    <t>TOALHA</t>
-  </si>
-  <si>
-    <t>BANHO</t>
-  </si>
-  <si>
-    <t>MANTA</t>
-  </si>
-  <si>
-    <t>TAPETE</t>
-  </si>
-  <si>
-    <t>GERAL</t>
-  </si>
-  <si>
-    <t>FRONHA</t>
-  </si>
-  <si>
-    <t>PASSADEIRA</t>
-  </si>
-  <si>
-    <t>ROUPAS</t>
-  </si>
-  <si>
-    <t>JOGO COZINHA</t>
-  </si>
-  <si>
-    <t>COZINHA</t>
-  </si>
-  <si>
-    <t>KIT PANO DE PRATO</t>
-  </si>
-  <si>
-    <t>TOALHA ROSTO</t>
-  </si>
-  <si>
-    <t>TAPETINHO</t>
-  </si>
-  <si>
-    <t>LENÇOL</t>
-  </si>
-  <si>
-    <t>EDREDOM</t>
-  </si>
-  <si>
-    <t>TOALHA EMBORRACHADA</t>
-  </si>
-  <si>
-    <t>LENÇOL SOLTEIRO</t>
-  </si>
-  <si>
-    <t>PANO PISO</t>
-  </si>
-  <si>
-    <t>LENÇOL CASAL</t>
-  </si>
-  <si>
-    <t>TOALHA RENDA</t>
-  </si>
-  <si>
-    <t>TAPETE PISO</t>
-  </si>
-  <si>
-    <t>JOGO PANELA</t>
-  </si>
-  <si>
-    <t>COBREDON</t>
-  </si>
-  <si>
-    <t>lower valor_total</t>
-  </si>
-  <si>
-    <t>upper valor_total</t>
-  </si>
-  <si>
-    <t>forecast</t>
-  </si>
-  <si>
-    <t>📊 Dashboard Katiana Store</t>
+    <t>Limite Inferior (R$)</t>
+  </si>
+  <si>
+    <t>Limite Superior (R$)</t>
+  </si>
+  <si>
+    <t>Previsão (R$)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,14 +153,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,132 +194,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6667500" cy="4762500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6667500" cy="4762500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6667500" cy="4762500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,19 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,19 +525,22 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>45902</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -682,21 +552,24 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="I2">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>45902</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -708,21 +581,24 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="I3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>45903</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -734,21 +610,24 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>45905</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -762,19 +641,22 @@
       <c r="H5">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>45905</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -786,21 +668,24 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>45907</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -812,21 +697,24 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>45907</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -840,19 +728,22 @@
       <c r="H8">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>45908</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -866,19 +757,22 @@
       <c r="H9">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>45909</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -890,21 +784,24 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>45910</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -918,19 +815,22 @@
       <c r="H11">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>45911</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -944,19 +844,22 @@
       <c r="H12">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>45912</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -968,99 +871,111 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>45915</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="I14">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>45915</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>45915</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>45919</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1074,19 +989,22 @@
       <c r="H17">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>45919</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1100,19 +1018,22 @@
       <c r="H18">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>45919</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1124,21 +1045,24 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="I19">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>45919</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1150,21 +1074,24 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>45920</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1176,21 +1103,24 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I21">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>45921</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1202,21 +1132,24 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="I22">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>45923</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1230,19 +1163,22 @@
       <c r="H23">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>45923</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1256,19 +1192,22 @@
       <c r="H24">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>45924</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1280,21 +1219,24 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="I25">
+        <v>65.39999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>45925</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1308,71 +1250,80 @@
       <c r="H26">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>45927</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I27">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>45927</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="I28">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>45928</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1386,19 +1337,22 @@
       <c r="H29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>45930</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1412,19 +1366,22 @@
       <c r="H30">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>45930</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1436,62 +1393,71 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>45933</v>
+        <v>45931</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>176</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>176</v>
+      </c>
+      <c r="I32">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="F32">
-        <v>295</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>45934</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
       <c r="F33">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="I33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>45932</v>
       </c>
@@ -1499,88 +1465,97 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="I35">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
-        <v>45932</v>
+        <v>45934</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="I36">
+        <v>65.39999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>45937</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1594,19 +1569,22 @@
       <c r="H37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>45937</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1620,19 +1598,22 @@
       <c r="H38">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>45939</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1646,71 +1627,80 @@
       <c r="H39">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>45941</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>1160</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1160</v>
+      </c>
+      <c r="I40">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>45941</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>1160</v>
+        <v>50</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>4640</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>45945</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1724,19 +1714,22 @@
       <c r="H42">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>45945</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1748,21 +1741,24 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I43">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>45945</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1774,21 +1770,24 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>45947</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1802,19 +1801,22 @@
       <c r="H45">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>45947</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1828,19 +1830,22 @@
       <c r="H46">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>45950</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1854,19 +1859,22 @@
       <c r="H47">
         <v>114</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>45951</v>
       </c>
       <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
         <v>30</v>
       </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1880,19 +1888,22 @@
       <c r="H48">
         <v>114</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>45953</v>
       </c>
       <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
         <v>31</v>
       </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1904,21 +1915,24 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>45954</v>
       </c>
       <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
         <v>32</v>
       </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -1930,21 +1944,24 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="I50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>45954</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1958,19 +1975,22 @@
       <c r="H51">
         <v>350</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>45956</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1982,21 +2002,24 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="I52">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>45958</v>
       </c>
       <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
         <v>30</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2009,6 +2032,9 @@
       </c>
       <c r="H53">
         <v>114</v>
+      </c>
+      <c r="I53">
+        <v>34.2</v>
       </c>
     </row>
   </sheetData>
@@ -2017,478 +2043,649 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>45902</v>
       </c>
       <c r="B2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="C2">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>45903</v>
       </c>
       <c r="B3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>45904</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>45905</v>
       </c>
       <c r="B5">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>35.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>45906</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>45907</v>
       </c>
       <c r="B7">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="C7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>45908</v>
       </c>
       <c r="B8">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>45909</v>
       </c>
       <c r="B9">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>45910</v>
       </c>
       <c r="B10">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>45911</v>
       </c>
       <c r="B11">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>45912</v>
       </c>
       <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>45913</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>45914</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>45915</v>
       </c>
       <c r="B15">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="C15">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>45916</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>45917</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>45918</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>45919</v>
       </c>
       <c r="B19">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="C19">
+        <v>77.40000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>45920</v>
       </c>
       <c r="B20">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="C20">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>45921</v>
       </c>
       <c r="B21">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="C21">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>45922</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>45923</v>
       </c>
       <c r="B23">
         <v>237</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>71.09999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>45924</v>
       </c>
       <c r="B24">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="C24">
+        <v>65.39999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>45925</v>
       </c>
       <c r="B25">
         <v>170</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>45926</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>45927</v>
       </c>
       <c r="B27">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="C27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>45928</v>
       </c>
       <c r="B28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>45929</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>45930</v>
       </c>
       <c r="B30">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>45931</v>
       </c>
       <c r="B31">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="C31">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>45932</v>
       </c>
       <c r="B32">
         <v>214</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>45933</v>
       </c>
       <c r="B33">
         <v>295</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>45934</v>
       </c>
       <c r="B34">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="C34">
+        <v>65.39999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>45935</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>45936</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>45937</v>
       </c>
       <c r="B37">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>45938</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>45939</v>
       </c>
       <c r="B39">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>45940</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>45941</v>
       </c>
       <c r="B41">
-        <v>4740</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1210</v>
+      </c>
+      <c r="C41">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>45942</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>45943</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>45944</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>45945</v>
       </c>
       <c r="B45">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="C45">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>45946</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>45947</v>
       </c>
       <c r="B47">
         <v>110</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>45948</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>45949</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>45950</v>
       </c>
       <c r="B50">
         <v>114</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>45951</v>
       </c>
       <c r="B51">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>45952</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>45953</v>
       </c>
       <c r="B53">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="C53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>45954</v>
       </c>
       <c r="B54">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="C54">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>45955</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>45956</v>
       </c>
       <c r="B56">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="C56">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>45957</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>45958</v>
       </c>
       <c r="B58">
         <v>114</v>
+      </c>
+      <c r="C58">
+        <v>34.2</v>
       </c>
     </row>
   </sheetData>
@@ -2497,33 +2694,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>45959</v>
       </c>
@@ -2531,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>617.37433951022274</v>
+        <v>215.168279652175</v>
       </c>
       <c r="D2">
-        <v>411.58289300681508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143.4455197681167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>45960</v>
       </c>
@@ -2545,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>176.9422403170731</v>
+        <v>128.069212585792</v>
       </c>
       <c r="D3">
-        <v>117.9614935447154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85.37947505719465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>45961</v>
       </c>
@@ -2559,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>392.31723103967471</v>
+        <v>251.7558149259989</v>
       </c>
       <c r="D4">
-        <v>261.54482069311638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167.837209950666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>45962</v>
       </c>
@@ -2573,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1240.04198628821</v>
+        <v>348.7908377804677</v>
       </c>
       <c r="D5">
-        <v>826.69465752547308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>232.5272251869785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>45963</v>
       </c>
@@ -2587,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>417.17321001803151</v>
+        <v>222.1267022530027</v>
       </c>
       <c r="D6">
-        <v>278.1154733453543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148.0844681686685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>45964</v>
       </c>
@@ -2601,13 +2793,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>245.9318928332498</v>
+        <v>123.0860495960887</v>
       </c>
       <c r="D7">
-        <v>163.95459522216649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82.05736639739246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>45965</v>
       </c>
@@ -2615,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>364.24401574118082</v>
+        <v>208.1574230809071</v>
       </c>
       <c r="D8">
-        <v>242.82934382745381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138.7716153872714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>45966</v>
       </c>
@@ -2629,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>567.45539855527886</v>
+        <v>210.3705205665067</v>
       </c>
       <c r="D9">
-        <v>378.30359903685257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140.2470137110045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>45967</v>
       </c>
@@ -2643,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>200.89550764639441</v>
+        <v>133.5711488151307</v>
       </c>
       <c r="D10">
-        <v>133.9303384309296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89.04743254342044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>45968</v>
       </c>
@@ -2657,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>464.38434349201702</v>
+        <v>261.9498964435908</v>
       </c>
       <c r="D11">
-        <v>309.58956232801143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174.6332642957272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>45969</v>
       </c>
@@ -2671,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1169.2413841599739</v>
+        <v>347.4833779023769</v>
       </c>
       <c r="D12">
-        <v>779.49425610664946</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>231.6555852682513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>45970</v>
       </c>
@@ -2685,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>513.24170277167923</v>
+        <v>235.5711811067075</v>
       </c>
       <c r="D13">
-        <v>342.16113518111939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157.0474540711383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>45971</v>
       </c>
@@ -2699,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>239.84456348505319</v>
+        <v>125.1024094530634</v>
       </c>
       <c r="D14">
-        <v>159.89637565670211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83.40160630204227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>45972</v>
       </c>
@@ -2713,13 +2905,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>361.5874514910804</v>
+        <v>211.4472880112858</v>
       </c>
       <c r="D15">
-        <v>241.05830099405361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140.9648586741905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>45973</v>
       </c>
@@ -2727,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>580.63381311972626</v>
+        <v>214.2826652625089</v>
       </c>
       <c r="D16">
-        <v>387.08920874648408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142.8551101750059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>45974</v>
       </c>
@@ -2741,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>209.26330757160039</v>
+        <v>137.3305382407077</v>
       </c>
       <c r="D17">
-        <v>139.5088717144003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91.55369216047178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>45975</v>
       </c>
@@ -2755,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>469.61893574068398</v>
+        <v>265.6397087082755</v>
       </c>
       <c r="D18">
-        <v>313.07929049378941</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177.0931391388503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>45976</v>
       </c>
@@ -2769,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1183.7796242662371</v>
+        <v>351.3437474138411</v>
       </c>
       <c r="D19">
-        <v>789.18641617749131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234.2291649425608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>45977</v>
       </c>
@@ -2783,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>516.9133079087178</v>
+        <v>239.2127923849223</v>
       </c>
       <c r="D20">
-        <v>344.60887193914522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159.4751949232815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>45978</v>
       </c>
@@ -2797,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>250.16862892286349</v>
+        <v>128.9134897039867</v>
       </c>
       <c r="D21">
-        <v>166.77908594857561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85.94232646932448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>45979</v>
       </c>
@@ -2811,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>371.6881030485726</v>
+        <v>215.2394833006371</v>
       </c>
       <c r="D22">
-        <v>247.7920686990484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143.4929888670914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>45980</v>
       </c>
@@ -2825,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>589.70327951549336</v>
+        <v>218.065632688045</v>
       </c>
       <c r="D23">
-        <v>393.13551967699561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145.3770884586966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>45981</v>
       </c>
@@ -2839,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>218.64604463813021</v>
+        <v>141.1157708930614</v>
       </c>
       <c r="D24">
-        <v>145.76402975875351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94.07718059537427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>45982</v>
       </c>
@@ -2853,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>479.20570953517353</v>
+        <v>269.4259731289242</v>
       </c>
       <c r="D25">
-        <v>319.47047302344902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179.6173154192828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>45983</v>
       </c>
@@ -2867,13 +3059,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1192.7605378487881</v>
+        <v>355.1274826200315</v>
       </c>
       <c r="D26">
-        <v>795.17369189919225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236.751655080021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>45984</v>
       </c>
@@ -2881,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>526.60186454335803</v>
+        <v>242.9997715839489</v>
       </c>
       <c r="D27">
-        <v>351.06790969557198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161.9998477226326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>45985</v>
       </c>
@@ -2895,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>259.42397257809739</v>
+        <v>132.6979558267039</v>
       </c>
       <c r="D28">
-        <v>172.949315052065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88.46530388446929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>45986</v>
       </c>
@@ -2909,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>380.95799557570621</v>
+        <v>219.0242294707799</v>
       </c>
       <c r="D29">
-        <v>253.9719970504708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146.0161529805199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>45987</v>
       </c>
@@ -2923,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>599.04032355891309</v>
+        <v>221.8505156993191</v>
       </c>
       <c r="D30">
-        <v>399.3602157059421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147.9003437995461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>45988</v>
       </c>
@@ -2937,32 +3129,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>227.96268827109949</v>
+        <v>144.9006203130076</v>
       </c>
       <c r="D31">
-        <v>151.97512551406629</v>
+        <v>96.60041354200504</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>